--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>839548.892514814</v>
+        <v>859687.6317675366</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.1079871</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7435922.868341219</v>
+        <v>7483324.094347533</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>99.54361067965348</v>
+        <v>412.5498698358133</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3324806316495</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>29.54721584576701</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>237.1620357654406</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>64.52658886781818</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1060,13 +1060,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>141.0670894717356</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>209.5867542297959</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>315.3842719646748</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>328.0882195147419</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>161.6473687850143</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1354,7 +1354,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537906</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.372720328348</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1619,10 +1619,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2392751840397</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.2277202765949</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.9505762815754</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>225.8081328485099</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2239,10 +2239,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>116.0434079398617</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>45.12958086936482</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>26.70160847752118</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2713,10 +2713,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>126.8355823247567</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2767,7 +2767,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>238.2650401936904</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.782529661778</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>19.80087630034418</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>22.2853439284772</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3557,7 +3557,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561524</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9826845827122</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,13 +3673,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551439</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3752,7 +3752,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>308.1804714223117</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820294</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3901,19 +3901,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>32.98066327132564</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022899</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>18.64034175572635</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820196</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.9735834668218</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>626.6133988393536</v>
+        <v>550.0582960462714</v>
       </c>
       <c r="C2" t="n">
-        <v>592.511330063181</v>
+        <v>515.9562272700987</v>
       </c>
       <c r="D2" t="n">
-        <v>491.9622283665614</v>
+        <v>99.23918703190341</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>69.50484623060265</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>45.67782068021445</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>45.67782068021445</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>45.67782068021445</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021445</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299071</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257665</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010722</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010722</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2063.823806883761</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1804.601504200778</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1804.601504200778</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1399.746049611811</v>
       </c>
       <c r="X2" t="n">
-        <v>653.1182849437999</v>
+        <v>980.6035861911217</v>
       </c>
       <c r="Y2" t="n">
-        <v>648.8725652838574</v>
+        <v>572.3174624907751</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715072</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081495</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547028</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816565</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.7985625978181</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400197</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021445</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067204</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068844</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245381</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720496</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.6889477470038</v>
+        <v>730.5825827829733</v>
       </c>
       <c r="C4" t="n">
-        <v>487.6889477470038</v>
+        <v>558.0208712661982</v>
       </c>
       <c r="D4" t="n">
-        <v>487.6889477470038</v>
+        <v>392.1428784677209</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>222.3848747184582</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>45.67782068021445</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021445</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021445</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021445</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021445</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>196.7623387080806</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>614.9722204760417</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1074.456087656955</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1516.714890814599</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1936.384140040381</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010722</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010722</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716094</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2232.627540144612</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2232.627540144612</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1954.194539397718</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>1667.239031268148</v>
       </c>
       <c r="W4" t="n">
-        <v>733.0807024135913</v>
+        <v>1395.21262685444</v>
       </c>
       <c r="X4" t="n">
-        <v>487.6889477470038</v>
+        <v>1149.820872187852</v>
       </c>
       <c r="Y4" t="n">
-        <v>487.6889477470038</v>
+        <v>922.4012015019605</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.7707107507765</v>
+        <v>2479.623634536778</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1890364880448</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D5" t="n">
-        <v>489.3196557028934</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>2521.230580021509</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.574042295003</v>
+        <v>2506.128520641224</v>
       </c>
       <c r="Y5" t="n">
-        <v>1189.32832263506</v>
+        <v>2501.882800981281</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>1304.820447932477</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1304.820447932477</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1304.820447932477</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.820447932477</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1304.820447932477</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1557.262375348432</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1523.160306572259</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1003.164238080161</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>584.0217746594717</v>
+        <v>1987.807665493282</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1983.561945833339</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>632.348846104353</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>632.348846104353</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>632.348846104353</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>462.5908423550903</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>285.8837883168464</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>89.90148899448771</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>859.7685167902448</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>859.7685167902448</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>632.348846104353</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2252.656868168568</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526436</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>944.829865684731</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939388</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
@@ -5039,16 +5039,16 @@
         <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>281.0195570041565</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1356.079523257016</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1356.079523257016</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N11" t="n">
         <v>2481.810506693463</v>
@@ -5115,10 +5115,10 @@
         <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
-        <v>96.77217639691919</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>421.3305013631315</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
         <v>1102.064021433509</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2472.724095295529</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C14" t="n">
-        <v>2034.581622478953</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.671837653397</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.897092811692</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F14" t="n">
-        <v>737.0296632209001</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172022</v>
       </c>
       <c r="H14" t="n">
         <v>97.15276605397518</v>
@@ -5276,16 +5276,16 @@
         <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>403.2461837293691</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K14" t="n">
-        <v>1237.596475687547</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940406</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940406</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="N14" t="n">
         <v>2312.656441940406</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556613</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901473</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480784</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.023665780437</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="15">
@@ -5352,10 +5352,10 @@
         <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>96.77217639691919</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>421.3305013631315</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
         <v>1102.064021433509</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.134188067672</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5724765508968</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524195</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H16" t="n">
         <v>96.73597668111519</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1087.134188067672</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.22255580238</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985803</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277504</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510143</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423057</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>495.614770742138</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1329.965062700316</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953175</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953175</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953175</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523481</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356878</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315472</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068529</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252366</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125404</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442421</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376247</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787281</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366592</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287287</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126633</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493056</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958589</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228126</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389742</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051581</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818282</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480405</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.823109900179</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348562</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679132</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132057</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924265</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983016</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815265</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>610.6396811830493</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337865</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955428</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860604</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157196</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251571</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281486</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.124342859941</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113046</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983477</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569768</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.31767490318</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.898004217289</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,28 +5756,28 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1011.560997133398</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="C22" t="n">
-        <v>838.9992856166232</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="D22" t="n">
         <v>673.1212928181459</v>
@@ -5899,7 +5899,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1430.799286538277</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.379615852385</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="23">
@@ -5990,13 +5990,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903951</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C28" t="n">
-        <v>842.8792965674086</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
         <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F28" t="n">
         <v>496.4142387799021</v>
@@ -6415,19 +6415,19 @@
         <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2232.36924598063</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3603.973621145286</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>3603.973621145286</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.973621145286</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1015.727725908489</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C34" t="n">
-        <v>843.1660143917137</v>
+        <v>798.4343348736202</v>
       </c>
       <c r="D34" t="n">
-        <v>677.2880215932364</v>
+        <v>632.5563420751429</v>
       </c>
       <c r="E34" t="n">
-        <v>507.5300178439737</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>120.500009313464</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6859,7 +6859,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
@@ -6868,7 +6868,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
         <v>2203.220781338905</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X34" t="n">
-        <v>1434.966015313367</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1207.546344627476</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957673</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789922</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805149</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312521</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930083</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7105,7 +7105,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O37" t="n">
         <v>2203.220781338905</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954128</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.8497331100114</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>677.2880215932364</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7336,7 +7336,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7366,16 +7366,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
         <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.155475112751</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460639021</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822443</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996888</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155183</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>700.8370285643906</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>389.543623087308</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834421</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.07841419448</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.07841419448</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410859</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981165</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814561</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773156</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526212</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710049</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583088</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900104</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833931</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244964</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824275</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123928</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218171</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584593</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050126</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319663</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481279</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143118</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909818</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571941</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1131.768986727571</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="L42" t="n">
-        <v>1131.768986727571</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.768986727571</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.768986727571</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="O42" t="n">
-        <v>1131.768986727571</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="P42" t="n">
-        <v>1131.768986727571</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223595</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015802</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.4894846535084</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="C43" t="n">
-        <v>615.9277731367333</v>
+        <v>612.2502812873241</v>
       </c>
       <c r="D43" t="n">
-        <v>450.049780338256</v>
+        <v>612.2502812873241</v>
       </c>
       <c r="E43" t="n">
-        <v>280.2917765889932</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F43" t="n">
-        <v>103.5847225507494</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305242</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952141</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663497</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343107</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.37340959865</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568992</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268253</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138683</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.119528724975</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X43" t="n">
-        <v>1207.727774058387</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y43" t="n">
-        <v>980.3081033724955</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168569</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351992</v>
+        <v>2084.815921872689</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526437</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>944.8298656847307</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>516.9624360939385</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G44" t="n">
-        <v>115.5646047172024</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
-        <v>403.24618372937</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K44" t="n">
-        <v>1237.596475687548</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510714</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302704</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239597</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112636</v>
+        <v>4803.381259633333</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429653</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363479</v>
+        <v>4181.542006884176</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774513</v>
+        <v>3776.686552295209</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353823</v>
+        <v>3357.54408887452</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653477</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>445.6952486367838</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>445.6952486367838</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="L45" t="n">
-        <v>445.6952486367838</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="M45" t="n">
-        <v>445.6952486367838</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="N45" t="n">
-        <v>1642.802960065584</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="O45" t="n">
-        <v>1642.802960065584</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="P45" t="n">
-        <v>1642.802960065584</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="Q45" t="n">
         <v>1642.802960065584</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777442</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I46" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
         <v>458.0741164169406</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289274</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.050282208978</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y46" t="n">
-        <v>1175.794137292997</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>527.3158022709947</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026806</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026806</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.3464805132021</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705719</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>186.1450306293347</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457111</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>309.606269745711</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>401.0418407280479</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9404,19 +9404,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9638,16 +9638,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10121,16 +10121,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365290842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>309.606269745712</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>326.1571705002132</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.19970851394</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>268.0111327346203</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>268.0111327346208</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.144577878929</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.011132734621</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.19489769745738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>178.3951296148332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>3.14686572942388</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>48.17580493063079</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>197.8082562505568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>216.2362286424005</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>44.00051207685064</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>37.38363054573534</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.146865729424608</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>61.36294431725483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>223.1369608195775</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>141.6500182959534</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58.917747949085</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>160.7958207444073</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.203381640657</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>184.7831561774888</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>135.0797604404445</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.5985112554895</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>184.7831561774898</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>197.171890512211</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>619283.3950496473</v>
+        <v>629812.9593749718</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>619283.3950496473</v>
+        <v>636743.4979303816</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>619283.3950496473</v>
+        <v>636743.4979303816</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633701.1044559091</v>
+        <v>633701.104455909</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>642643.2433466533</v>
+        <v>660444.0152056239</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660444.0152056239</v>
+        <v>660444.015205624</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660444.015205624</v>
+        <v>660444.0152056239</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660444.0152056239</v>
+        <v>660444.015205624</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651501.8763148796</v>
+        <v>633701.104455909</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633701.1044559091</v>
+        <v>633701.104455909</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361899.4409260258</v>
+        <v>361899.4409260256</v>
       </c>
       <c r="C2" t="n">
         <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260256</v>
+        <v>361899.4409260258</v>
       </c>
       <c r="E2" t="n">
         <v>341228.6311308816</v>
       </c>
       <c r="F2" t="n">
-        <v>341228.6311308816</v>
+        <v>341228.6311308817</v>
       </c>
       <c r="G2" t="n">
-        <v>346043.6989785078</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="H2" t="n">
         <v>355628.8692927128</v>
@@ -26341,19 +26341,19 @@
         <v>355628.8692927128</v>
       </c>
       <c r="L2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="M2" t="n">
         <v>355628.8692927127</v>
       </c>
       <c r="N2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="O2" t="n">
-        <v>350813.8014450866</v>
+        <v>341228.6311308816</v>
       </c>
       <c r="P2" t="n">
-        <v>341228.6311308816</v>
+        <v>341228.6311308815</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476938</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745874</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104284872</v>
+        <v>18928.52796216472</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996504</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256754</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393304</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>189053.9025590636</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>91036.5962575257</v>
+        <v>91036.59625752569</v>
       </c>
       <c r="F4" t="n">
-        <v>91036.5962575257</v>
+        <v>91036.59625752569</v>
       </c>
       <c r="G4" t="n">
-        <v>92321.21116848494</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875289</v>
@@ -26451,13 +26451,13 @@
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875292</v>
       </c>
       <c r="O4" t="n">
-        <v>93593.82973779365</v>
+        <v>91036.59625752567</v>
       </c>
       <c r="P4" t="n">
-        <v>91036.59625752571</v>
+        <v>91036.59625752567</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696298</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764753</v>
@@ -26482,10 +26482,10 @@
         <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024163</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319843</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51809.76730812439</v>
+        <v>-86843.30909769476</v>
       </c>
       <c r="C6" t="n">
-        <v>90381.53335158544</v>
+        <v>82607.34616036619</v>
       </c>
       <c r="D6" t="n">
-        <v>90381.53335158539</v>
+        <v>113797.3810978251</v>
       </c>
       <c r="E6" t="n">
-        <v>-57682.32942632907</v>
+        <v>14861.05883079711</v>
       </c>
       <c r="F6" t="n">
-        <v>176672.6925957084</v>
+        <v>176596.1340409117</v>
       </c>
       <c r="G6" t="n">
-        <v>172469.9319669325</v>
+        <v>164080.43373662</v>
       </c>
       <c r="H6" t="n">
-        <v>170629.4310582024</v>
+        <v>183008.9616987848</v>
       </c>
       <c r="I6" t="n">
-        <v>183032.1860381674</v>
+        <v>183008.9616987848</v>
       </c>
       <c r="J6" t="n">
-        <v>72017.72069317719</v>
+        <v>33617.36527310937</v>
       </c>
       <c r="K6" t="n">
-        <v>183032.1860381674</v>
+        <v>158162.0249148517</v>
       </c>
       <c r="L6" t="n">
-        <v>183032.1860381674</v>
+        <v>183008.9616987847</v>
       </c>
       <c r="M6" t="n">
-        <v>-12568.99324490048</v>
+        <v>48019.01708578117</v>
       </c>
       <c r="N6" t="n">
-        <v>183032.1860381674</v>
+        <v>183008.9616987846</v>
       </c>
       <c r="O6" t="n">
-        <v>180905.7356240945</v>
+        <v>176596.1340409116</v>
       </c>
       <c r="P6" t="n">
-        <v>176672.6925957084</v>
+        <v>176596.1340409115</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026806</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267132</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631553</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026806</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517639</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319233</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761297</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026806</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517639</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026806</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517639</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319233</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761297</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,13 +27382,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>332.0070762976464</v>
+        <v>19.00081714148661</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57.72794308012062</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>128.1017391692163</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184.8745390146181</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>336.2803111752588</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>26.99333424003453</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>33.83389772753338</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>116.1664150126251</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.287993439416312</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>527.3158022709947</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026806</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026806</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.3464805132021</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705719</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>186.1450306293347</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457111</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>309.606269745711</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>401.0418407280479</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,19 +36124,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,16 +36358,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,16 +36841,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.4542274390805</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36996,7 +36996,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37230,16 +37230,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37470,13 +37470,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365290842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>309.606269745712</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>326.1571705002132</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.19970851394</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
